--- a/model_templates/ark.CyTOFAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.CyTOFAssayMetadataTemplate.xlsx
@@ -15057,7 +15057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
   <si>
     <t>Component</t>
   </si>
@@ -15182,7 +15182,7 @@
     <t>Cell Ranger v5.0.1</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>kiloplex</t>
   </si>
   <si>
     <t>Chromium Controller</t>
@@ -15191,7 +15191,7 @@
     <t>Cell Ranger v6.0.0</t>
   </si>
   <si>
-    <t>multiplexed ELISA</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
     <t>Chromium GEM-X Single Cell 3' Chip v4</t>
@@ -15200,7 +15200,7 @@
     <t>Cell Ranger v6.0.1</t>
   </si>
   <si>
-    <t>NULISA</t>
+    <t>multiplexed ELISA</t>
   </si>
   <si>
     <t>Chromium iX</t>
@@ -15209,7 +15209,7 @@
     <t>Cell Ranger v6.0.2</t>
   </si>
   <si>
-    <t>Olink Explore HT</t>
+    <t>NULISA</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip G</t>
@@ -15218,7 +15218,7 @@
     <t>Cell Ranger v6.1.0</t>
   </si>
   <si>
-    <t>Olink Flex</t>
+    <t>Olink Explore HT</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip H</t>
@@ -15227,7 +15227,7 @@
     <t>Cell Ranger v6.1.1</t>
   </si>
   <si>
-    <t>Olink Focus</t>
+    <t>Olink Flex</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip K</t>
@@ -15236,7 +15236,7 @@
     <t>Cell Ranger v6.1.2</t>
   </si>
   <si>
-    <t>Olink Reveal</t>
+    <t>Olink Focus</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip M</t>
@@ -15245,7 +15245,7 @@
     <t>Cell Ranger v7.0.0</t>
   </si>
   <si>
-    <t>Olink Target 48</t>
+    <t>Olink Reveal</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip Q</t>
@@ -15254,7 +15254,7 @@
     <t>Cell Ranger v7.0.1</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
+    <t>Olink Target 48</t>
   </si>
   <si>
     <t>Chromium X</t>
@@ -15263,7 +15263,7 @@
     <t>Cell Ranger v7.1.0</t>
   </si>
   <si>
-    <t>RNASeq</t>
+    <t>Olink Target 96</t>
   </si>
   <si>
     <t>Chromium Xo</t>
@@ -15272,7 +15272,7 @@
     <t>Cell Ranger v7.2.0</t>
   </si>
   <si>
-    <t>scRNASeq</t>
+    <t>RNASeq</t>
   </si>
   <si>
     <t>Cytek Aurora</t>
@@ -15281,7 +15281,7 @@
     <t>Cell Ranger v8.0.0</t>
   </si>
   <si>
-    <t>scVDJSeq</t>
+    <t>scRNASeq</t>
   </si>
   <si>
     <t>Cytek Aurora Evo</t>
@@ -15290,7 +15290,7 @@
     <t>Cell Ranger v8.0.1</t>
   </si>
   <si>
-    <t>serial IHC</t>
+    <t>scVDJSeq</t>
   </si>
   <si>
     <t>CyTOF XT</t>
@@ -15299,7 +15299,7 @@
     <t>Cell Ranger v9.0.0</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>serial IHC</t>
   </si>
   <si>
     <t>Fluidigm BioMark</t>
@@ -15308,7 +15308,7 @@
     <t>demuxlet</t>
   </si>
   <si>
-    <t>SNP array</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>GEM-X Flex Gene Expression Chip</t>
@@ -15317,7 +15317,7 @@
     <t>Space Ranger 3.0.0</t>
   </si>
   <si>
-    <t>snRNASeq</t>
+    <t>SNP array</t>
   </si>
   <si>
     <t>GEM-X OCM 5' Chip</t>
@@ -15326,7 +15326,7 @@
     <t>Space Ranger 3.0.1</t>
   </si>
   <si>
-    <t>SomaScan</t>
+    <t>snRNASeq</t>
   </si>
   <si>
     <t>Helios Mass Cytometer</t>
@@ -15335,7 +15335,7 @@
     <t>Space Ranger 3.1.0</t>
   </si>
   <si>
-    <t>VDJSeq</t>
+    <t>SomaScan</t>
   </si>
   <si>
     <t>Hyperion</t>
@@ -15344,7 +15344,7 @@
     <t>Space Ranger 3.1.1</t>
   </si>
   <si>
-    <t>WES</t>
+    <t>VDJSeq</t>
   </si>
   <si>
     <t>Illumina HiSeq 2500</t>
@@ -15353,7 +15353,7 @@
     <t>Space Ranger 3.1.2</t>
   </si>
   <si>
-    <t>WGS</t>
+    <t>WES</t>
   </si>
   <si>
     <t>Illumina HiSeq X Ten</t>
@@ -15362,10 +15362,13 @@
     <t>Space Ranger 3.1.3</t>
   </si>
   <si>
-    <t>Xenium</t>
+    <t>WGS</t>
   </si>
   <si>
     <t>Illumina NextSeq 500</t>
+  </si>
+  <si>
+    <t>Xenium</t>
   </si>
   <si>
     <t>Illumina NovaSeq 6000</t>
@@ -43135,63 +43138,66 @@
       </c>
     </row>
     <row r="33">
-      <c r="F33" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="F33" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34">
       <c r="F34" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.CyTOFAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.CyTOFAssayMetadataTemplate.xlsx
@@ -15057,7 +15057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>Component</t>
   </si>
@@ -15155,7 +15155,7 @@
     <t>Cell Ranger v3.1.0</t>
   </si>
   <si>
-    <t>H&amp;E</t>
+    <t>GenePS SeqFISH</t>
   </si>
   <si>
     <t>BD FACSMelody</t>
@@ -15164,7 +15164,7 @@
     <t>Cell Ranger v4.0.0</t>
   </si>
   <si>
-    <t>imaging mass cytometry</t>
+    <t>H&amp;E</t>
   </si>
   <si>
     <t>BD FACSymphony S6</t>
@@ -15173,7 +15173,7 @@
     <t>Cell Ranger v5.0.0</t>
   </si>
   <si>
-    <t>imaging mass spectrometry</t>
+    <t>imaging mass cytometry</t>
   </si>
   <si>
     <t>BD LSRFortessa</t>
@@ -15182,7 +15182,7 @@
     <t>Cell Ranger v5.0.1</t>
   </si>
   <si>
-    <t>kiloplex</t>
+    <t>imaging mass spectrometry</t>
   </si>
   <si>
     <t>Chromium Controller</t>
@@ -15191,7 +15191,7 @@
     <t>Cell Ranger v6.0.0</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>kiloplex</t>
   </si>
   <si>
     <t>Chromium GEM-X Single Cell 3' Chip v4</t>
@@ -15200,7 +15200,7 @@
     <t>Cell Ranger v6.0.1</t>
   </si>
   <si>
-    <t>multiplexed ELISA</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
     <t>Chromium iX</t>
@@ -15209,7 +15209,7 @@
     <t>Cell Ranger v6.0.2</t>
   </si>
   <si>
-    <t>NULISA</t>
+    <t>multiplexed ELISA</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip G</t>
@@ -15218,7 +15218,7 @@
     <t>Cell Ranger v6.1.0</t>
   </si>
   <si>
-    <t>Olink Explore HT</t>
+    <t>NULISA</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip H</t>
@@ -15227,7 +15227,7 @@
     <t>Cell Ranger v6.1.1</t>
   </si>
   <si>
-    <t>Olink Flex</t>
+    <t>Olink Explore HT</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip K</t>
@@ -15236,7 +15236,7 @@
     <t>Cell Ranger v6.1.2</t>
   </si>
   <si>
-    <t>Olink Focus</t>
+    <t>Olink Flex</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip M</t>
@@ -15245,7 +15245,7 @@
     <t>Cell Ranger v7.0.0</t>
   </si>
   <si>
-    <t>Olink Reveal</t>
+    <t>Olink Focus</t>
   </si>
   <si>
     <t>Chromium Next GEM Chip Q</t>
@@ -15254,7 +15254,7 @@
     <t>Cell Ranger v7.0.1</t>
   </si>
   <si>
-    <t>Olink Target 48</t>
+    <t>Olink Reveal</t>
   </si>
   <si>
     <t>Chromium X</t>
@@ -15263,7 +15263,7 @@
     <t>Cell Ranger v7.1.0</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
+    <t>Olink Target 48</t>
   </si>
   <si>
     <t>Chromium Xo</t>
@@ -15272,7 +15272,7 @@
     <t>Cell Ranger v7.2.0</t>
   </si>
   <si>
-    <t>RNASeq</t>
+    <t>Olink Target 96</t>
   </si>
   <si>
     <t>Cytek Aurora</t>
@@ -15281,7 +15281,7 @@
     <t>Cell Ranger v8.0.0</t>
   </si>
   <si>
-    <t>scRNASeq</t>
+    <t>RNASeq</t>
   </si>
   <si>
     <t>Cytek Aurora Evo</t>
@@ -15290,7 +15290,7 @@
     <t>Cell Ranger v8.0.1</t>
   </si>
   <si>
-    <t>scVDJSeq</t>
+    <t>scRNASeq</t>
   </si>
   <si>
     <t>CyTOF XT</t>
@@ -15299,7 +15299,7 @@
     <t>Cell Ranger v9.0.0</t>
   </si>
   <si>
-    <t>serial IHC</t>
+    <t>scVDJSeq</t>
   </si>
   <si>
     <t>Fluidigm BioMark</t>
@@ -15308,7 +15308,7 @@
     <t>demuxlet</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>serial IHC</t>
   </si>
   <si>
     <t>GEM-X Flex Gene Expression Chip</t>
@@ -15317,7 +15317,7 @@
     <t>Space Ranger 3.0.0</t>
   </si>
   <si>
-    <t>SNP array</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>GEM-X OCM 5' Chip</t>
@@ -15326,7 +15326,7 @@
     <t>Space Ranger 3.0.1</t>
   </si>
   <si>
-    <t>snRNASeq</t>
+    <t>SNP array</t>
   </si>
   <si>
     <t>Helios Mass Cytometer</t>
@@ -15335,7 +15335,7 @@
     <t>Space Ranger 3.1.0</t>
   </si>
   <si>
-    <t>SomaScan</t>
+    <t>snRNASeq</t>
   </si>
   <si>
     <t>Hyperion</t>
@@ -15344,7 +15344,7 @@
     <t>Space Ranger 3.1.1</t>
   </si>
   <si>
-    <t>VDJSeq</t>
+    <t>SomaScan</t>
   </si>
   <si>
     <t>Illumina HiSeq 2500</t>
@@ -15353,7 +15353,7 @@
     <t>Space Ranger 3.1.2</t>
   </si>
   <si>
-    <t>WES</t>
+    <t>VDJSeq</t>
   </si>
   <si>
     <t>Illumina HiSeq X Ten</t>
@@ -15362,19 +15362,25 @@
     <t>Space Ranger 3.1.3</t>
   </si>
   <si>
-    <t>WGS</t>
+    <t>Visium</t>
   </si>
   <si>
     <t>Illumina NextSeq 500</t>
   </si>
   <si>
-    <t>Xenium</t>
+    <t>WES</t>
   </si>
   <si>
     <t>Illumina NovaSeq 6000</t>
   </si>
   <si>
+    <t>WGS</t>
+  </si>
+  <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Xenium</t>
   </si>
   <si>
     <t>none</t>
@@ -43146,58 +43152,64 @@
       </c>
     </row>
     <row r="34">
-      <c r="F34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="F35" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="35">
+      <c r="B35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="36">
       <c r="F36" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
